--- a/mysite/output.xlsx
+++ b/mysite/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="532">
   <si>
     <t>year</t>
   </si>
@@ -46,19 +46,1570 @@
     <t>Acts</t>
   </si>
   <si>
-    <t>30-05-2015</t>
-  </si>
-  <si>
-    <t>Villa 13 Sunset Club</t>
-  </si>
-  <si>
-    <t>Brazil</t>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Fisher &amp; Wade - New Year's Eve Weekend</t>
+  </si>
+  <si>
+    <t>LinkMiamiRebels</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Factory Town</t>
+  </si>
+  <si>
+    <t>Fisher (OZ), Wade, Totally Enormous Extinct Dinosaurs, Andres Line, Miguelle, TONS, DIFFER, Miluhska</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (DJ Set), Heathered Pearls, Kate Garvey</t>
+  </si>
+  <si>
+    <t>Elsewhere</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Heathered Pearls, Kate Garvey</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Schlaflos Spezial mit Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Schlaflos</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Pratersauna</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, KSOT Soundsystem</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>DOUBLEHEADER: LP Giobbi &amp; Totally Enormous Extinct Dinosaurs at SI-BK Room - GRAY AREA</t>
+  </si>
+  <si>
+    <t>enterGrayArea, enterGrayArea NYC</t>
+  </si>
+  <si>
+    <t>Superior Ingredients</t>
+  </si>
+  <si>
+    <t>LP Giobbi, Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Q Nightclub</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs - A Dream I Have DJ Tour</t>
+  </si>
+  <si>
+    <t>Spybar</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Disclosure, Dixon, Totally Enormous Extinct Dinosaurs &amp; Jimi Jules B2B Trikk at Club Space</t>
+  </si>
+  <si>
+    <t>LinkMiamiRebels, clubspacemiami</t>
+  </si>
+  <si>
+    <t>Club Space Miami</t>
+  </si>
+  <si>
+    <t>Disclosure, Dixon, Totally Enormous Extinct Dinosaurs, Jimi Jules, Trikk, Andres Line</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Lights Down Low feat. Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Lights Down Low</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>TBA - Los Angeles</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>When The Lights Go Tour</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>The Portal at Area15</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>CRSSD Festival Spring '23</t>
+  </si>
+  <si>
+    <t>FNGRS CRSSD</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Waterfront Park in San Diego</t>
+  </si>
+  <si>
+    <t>ODESZA, Polo &amp; Pan, Bon Entendeur, Channel Tres, Luna LI, Totally Enormous Extinct Dinosaurs, Yelle, Lane 8, Bedouin, Kavinsky, Mall Grab, Purple Disco Machine, Seth Troxler, Eats Everything, Chaos In The CBD, Jackmaster, Kettama, Mark Broom, Deborah De Luca, Maya Jane Coles, Umek, AMÉMÉ, Anfisa Letyago, Bloody Mary, Jensen Interceptor, Miss Kittin, The Hacker, Popof, Space 92, Sama' Abdulhadi, Skin On Skin, Giolì &amp; Assia, MANICS, Rivka M, Soul Of Hex, Brina Knauss, Carré, Juheun, Ken Ishii, Paurro</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Eat Your Own Ears</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>unrecognized</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>EPIC POOL PARTIES pres. Nick Warren's 'The Soundgarden' - DAY 3 - MIAMI MUSIC WEEK</t>
+  </si>
+  <si>
+    <t>The Soundgarden, Epic Pool Party</t>
+  </si>
+  <si>
+    <t>The Sagamore Hotel</t>
+  </si>
+  <si>
+    <t>Armen Miran, Francesca Lombardo, Nick Warren, Oceanvs Orientalis, Rodriguez Jr., Totally Enormous Extinct Dinosaurs, Jonas Rathsman, Fiin, Freak The Disco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department - Långholmen Edition </t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Långholmens Amfiteater</t>
+  </si>
+  <si>
+    <t>Maceo Plex, Royksopp, Off The Meds, Alinka, Prescott, Four Tet, Totally Enormous Extinct Dinosaurs, Avalon Emerson, Sebastian Mullaert, Johanna Knutsson, Parallax Deep, DJ Seinfeld</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>It by Framework: Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Sunset at EDITION</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>AUDIOTREE PRESENTS: TOTALLY ENORMOUS EXTINCT DINOSAURS WHEN THE LIGHTS GO - LIVE</t>
+  </si>
+  <si>
+    <t>Lincoln Hall</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (DJ Set) - Austin</t>
+  </si>
+  <si>
+    <t>RealMusic Events</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>The Concourse Project</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs &amp; DJ Craze</t>
+  </si>
+  <si>
+    <t>Public Works</t>
+  </si>
+  <si>
+    <t>San Francisco/Oakland</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, DJ Craze</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs – Live</t>
+  </si>
+  <si>
+    <t>Super!</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>La Maroquinerie</t>
+  </si>
+  <si>
+    <t>GET LOST MIAMI</t>
+  </si>
+  <si>
+    <t>Crosstown Rebels, LinkMiamiRebels</t>
+  </si>
+  <si>
+    <t>A-Trak, Adam Ten, Airrica, Ali Love, AMÉMÉ, ANOTR, Art Department, Chloe Caillet, Damian Lazarus, Dan Ghenacia, Danny Daze, Danny Tenaglia, Deer Jade, Dennis Cruz, DJ Harvey, DJ Holographic, DJ Tennis, DJ Three, Doc Martin, Elif, Francesca Lombardo, Goldcap, Guti, Harry Romero, Heidi Lawden, Ida Engberg, Jaden Thompson, Joeski, Joplyn, Josh Wink, Kenny Glasgow, Kolsch, Lauren Lane, Layla Benitez, Lee Reynolds, LP Giobbi, MAGA, Mathew Jonson, Metrika, Michelle Leshem, Mikey Lion, Mita Gami, Mustafa Ismaeel, Natasha Diggs, Oceanvs Orientalis, Pete Tong, Pier Bucci, Porky, Rebolledo, Sabo, Salomé Le Chat, Serge Devant, Seth Troxler, Skream, SONA (2), Soul Clap, Tibi Dabo, Totally Enormous Extinct Dinosaurs, Yulia Niko</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (Teed)</t>
+  </si>
+  <si>
+    <t>The Independent</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Contact: Totally Enormous Extinct Dinosaurs (DJ Set)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash </t>
+  </si>
+  <si>
+    <t>Washington DC</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Robin Bueno</t>
+  </si>
+  <si>
+    <t>Blah Blah Blah presents Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Blah Blah Blah, ATOM presents</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Patterns</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Blah Blah Blah DJs</t>
+  </si>
+  <si>
+    <t>Factory 93 presents: CamelPhat at El Pueblo Historical Monument</t>
+  </si>
+  <si>
+    <t>Factory 93</t>
+  </si>
+  <si>
+    <t>El Pueblo Historical Monument</t>
+  </si>
+  <si>
+    <t>CamelPhat, Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>CONTACT: Totally Enormous Extinct Dinosaurs (DJ Set)</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs DJ Set + Jacques Greene</t>
+  </si>
+  <si>
+    <t>Now Wave</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Jacques Greene</t>
+  </si>
+  <si>
+    <t>Inner State</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Dhërmi Beach</t>
+  </si>
+  <si>
+    <t>Tiga, Hudson Mohawke, Minus, Benji B, Bradley Zero, Colleen 'Cosmo' Murphy, Erol Alkan, Greentea Peng, Joe Goddard, Leon Vynehall, Mafalda, Totally Enormous Extinct Dinosaurs, Grainger, Lemmy Ashton, Nicola Bear, The Sonic Emporium, Michelle Cade, East of Eden, CAMPFIRE</t>
+  </si>
+  <si>
+    <t>Get Lost 15th Session - Circus Celebration</t>
+  </si>
+  <si>
+    <t>Crosstown Rebels</t>
+  </si>
+  <si>
+    <t>AMÉMÉ, Art Department, Audiofly, Audiojack, Bartolomeo, Bedouin, Carl Craig, Carlita, Cristina Lazic, Damian Lazarus, Danny Daze, Danny Tenaglia, DAVI, Denney, Dennis Cruz, DJ Holographic, DJ Tennis, DJ Three, Doc Martin, Elif, Felix Da Housecat, Francesca Lombardo, Francisco Allendes, Goldcap, Harry Romero, Hot Since 82, Ida Engberg, Jenia Tarsol, Joeski, Jonny Rock, Kevin Knapp, Layla Benitez, Magit Cacoon, Marbs, Mathame, Metrika, Mikey Lion, Mustafa Ismaeel, Nick Warren, Nicole Moudaber, Rebolledo, Ryan Crosson, Rony Seikaly, Senzala, Serge Devant, Seth Troxler, Shaun Reeves, Soul Clap, Tibi Dabo, Tiga, TOKiMONSTA, Totally Enormous Extinct Dinosaurs, Visionquest, Yulia Niko</t>
+  </si>
+  <si>
+    <t>Justin Martin - Life Aquatic - Arc at Sea Miami</t>
+  </si>
+  <si>
+    <t>Auris Presents</t>
+  </si>
+  <si>
+    <t>Musette Yacht</t>
+  </si>
+  <si>
+    <t>Justin Martin, Totally Enormous Extinct Dinosaurs, DJ Minx</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Relentless Beats</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Sunbar Tempe</t>
+  </si>
+  <si>
+    <t>Dhërmi, Albania</t>
+  </si>
+  <si>
+    <t>Tiga, Hudson Mohawke, Minus, Benji B, Bradley Zero, Colleen 'Cosmo' Murphy, Erol Alkan, Greentea Peng, Joe Goddard, Leon Vynehall, Mafalda, Totally Enormous Extinct Dinosaurs, Grainger, Lemmy Ashton, Nicola Bear, The Sonic Emporium</t>
+  </si>
+  <si>
+    <t>All Night: Bonobo B2B Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>N8werk Saarbrücken</t>
+  </si>
+  <si>
+    <t>Bonobo, Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Curated by Four Tet</t>
+  </si>
+  <si>
+    <t>The Warehouse Project</t>
+  </si>
+  <si>
+    <t>Four Tet, DJ EZ, Hunee, Avalon Emerson, Goldie, Boys Noize, Joy Orbison, Special Request, Chloé Robinson, SHERELLE, Koreless, Totally Enormous Extinct Dinosaurs, Anthony Naples, TSHA, Anz, Sofia Kourtesis, Effy, Jossy Mitsu, Mr Mitch, Aletha, Floating Points, Ben UFO</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (DJ Set)</t>
+  </si>
+  <si>
+    <t>BEMF</t>
+  </si>
+  <si>
+    <t>Quantum</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Durante</t>
+  </si>
+  <si>
+    <t>Noise Complaint feat. Totally Enormous Extinct Dinosaurs &amp; Durante</t>
+  </si>
+  <si>
+    <t>Kremwerk-Timbre Room-Cherry Complex</t>
+  </si>
+  <si>
+    <t>DTX Secret Sauce with Moullinex b2b TEED, GPU Panic, Madd Rod</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Núcleo A70</t>
+  </si>
+  <si>
+    <t>Moullinex, Totally Enormous Extinct Dinosaurs, GPU Panic, Madd Rod</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Decksonthebeach presents Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Sporting Club Beach</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Jad Taleb</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (dj set) Club</t>
+  </si>
+  <si>
+    <t>It'll Do Dallas</t>
+  </si>
+  <si>
+    <t>Dallas/Fort Worth</t>
+  </si>
+  <si>
+    <t>It'll Do</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Red Eye</t>
+  </si>
+  <si>
+    <t>Bonobo presents Outlier - Montréal, QC.</t>
+  </si>
+  <si>
+    <t>EVENKO, Osheaga Festival, Piknic Electronik</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Parc Jean-Drapeau</t>
+  </si>
+  <si>
+    <t>Bonobo, Totally Enormous Extinct Dinosaurs, Jimmy Edgar, Machinedrum, Prefuse 73, Durante</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Unmute x Auro presents Totally Enormous Extinct Dinosaurs (DJ set)</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Auro Kitchen and Bar</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Kohra</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Outlier OFFSónar presented by Bonobo</t>
+  </si>
+  <si>
+    <t>OFFSónar, Centris Events</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Poble Espanyol</t>
+  </si>
+  <si>
+    <t>Bonobo, Agoria, Mathew Jonson, Totally Enormous Extinct Dinosaurs, rRoxymore</t>
+  </si>
+  <si>
+    <t>Rhonda Queen of the Desert: Vegas</t>
+  </si>
+  <si>
+    <t>Rhonda INTL, Bodywork LV</t>
+  </si>
+  <si>
+    <t>Commonwealth Bar</t>
+  </si>
+  <si>
+    <t>Ash Lauryn, A.C. Esme, Brock G, DJ M3, DJ Sneak, Goddollars, Jacques Greene, Jubilee, Martyn Bootyspoon, NIGELTHREETIMES, Omar-S, Totally Enormous Extinct Dinosaurs, Yaeji</t>
+  </si>
+  <si>
+    <t>Folamour, Totally Enormous Extinct Dinosaurs, Kornél Kovács, Mafalda, Disco Pussy</t>
+  </si>
+  <si>
+    <t>Forum Birmingham</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Folamour, Totally Enormous Extinct Dinosaurs, Kornél Kovács, Mafalda</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs &amp; Dense &amp; Piika</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Xe54</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Dense &amp; Pika</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Greco-Roman: Totally Enormous Extinct Dinosaurs, Joe Goddard, Baio, Roosevelt &amp; More</t>
+  </si>
+  <si>
+    <t>Bugged Out!</t>
+  </si>
+  <si>
+    <t>Bloc (Autumn Street)</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Joe Goddard, Lxury, Opal, Full Nelson</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Heineken presents: Totally Enormous Extinct Dinosaurs (DJ Set)</t>
+  </si>
+  <si>
+    <t>Audio SF</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Richie Panic, Corey Sizemore, onemohit</t>
+  </si>
+  <si>
+    <t>Rhondavous: Five Rooms of Full-Force Fantasy</t>
+  </si>
+  <si>
+    <t>Catch One, Rhonda INTL</t>
+  </si>
+  <si>
+    <t>Catch One</t>
+  </si>
+  <si>
+    <t>BAE BAE, Bearcat, Byron The Aquarius, Darone Sassounian, DJ Noir, Galcher Lustwerk, Goddollars, Kush Jones, Martyn Bootyspoon, Things You Say, Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>OFFSónar 2019</t>
+  </si>
+  <si>
+    <t>Centris Events, OFFSónar</t>
+  </si>
+  <si>
+    <t>Seth Troxler, The Martinez Brothers, Rampa, &amp;ME, Rodhad, Virgil Abloh, Volvox, San Proper, Honey Soundsystem, Adam Port, Cashu, Adiel, Sossa, Luciano, Damian Lazarus, Rampue, Monolink, Jan Blomqvist, Sainte Vie, Kerala Dust, Black Motion, Valentin Huedo, Adam Beyer, Enrico Sangiuliano, Bart Skills, Charlotte de Witte, Layton Giordani, Joel Mull, Julian Jeweil, Ida Engberg, Ilario Alicante, Wehbba, Carl Craig, DJ Stingray, Moodymann, Waajeed, DJ Holographic, Hunee, Antal, I-F, Interstellar Funk, Young Marco, Sassy J, Insanlar, Âme, Dixon, Apparat, Avalon Emerson, Courtesy, Gerd Janson, HAAi, Job Jobse, John Talabot, KiNK, Frank Wiedemann, Âme, Marcel Dettmann, Marcus Worgull, Motor City Drum Ensemble, Or:la, SRVD, RadioSlave, Patrick Mason, Terr, Trikk, Amelie Lens, Farrago, Airod, Milo Spykers, Bonobo, Agoria, Mathew Jonson, Totally Enormous Extinct Dinosaurs, rRoxymore, Carl Cox, Dubfire, Lil' Louis, Nastia, Alex Kennon, Brina Knauss, Chelina Manuhutu, Francisco Allendes</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (DJ Set) with Kim Ann Foxman, Tasker (Whities, UK), Baltra</t>
+  </si>
+  <si>
+    <t>PopGun Presents, Elsewhere</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Kim Ann Foxman, Tasker, Baltra</t>
+  </si>
+  <si>
+    <t>Show presents Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Sub Club</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Cian McKenzie, Dylan Smith</t>
+  </si>
+  <si>
+    <t>Artwork + Totally Enormous Extinct Dinosaurs (DJ Set) + Donna Leake</t>
+  </si>
+  <si>
+    <t>Columbo, XOYO</t>
+  </si>
+  <si>
+    <t>XOYO</t>
+  </si>
+  <si>
+    <t>Artwork, Totally Enormous Extinct Dinosaurs, Donna Leake</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>[CANCELLED] Printworks NYD: DJ Koze, Artwork, Erol Alkan &amp; Red Axes, Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Printworks</t>
+  </si>
+  <si>
+    <t>DJ Koze, Artwork, Erol Alkan, Red Axes, Totally Enormous Extinct Dinosaurs, Trudy Knight, TSHA, Just William, Hecha, Sonofes, Jahmed</t>
+  </si>
+  <si>
+    <t>FABRICLIVE: TEED, Jacques Greene, Dr Banana, Phone Traxxx (Live), Nick Höppner &amp; More</t>
+  </si>
+  <si>
+    <t>fabric</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Jacques Greene, Lone, Giulia Tess, Hutch, Nick Höppner, Phone Traxxx, Alec Falconer, Harry Wills, Rob Amboule, Aletha, Jay Carder, Dr Banana, Tho, Loren, Tom Cottrell</t>
+  </si>
+  <si>
+    <t>Sundays at Phonox: TEED (All Day Long x Bank Holiday)</t>
+  </si>
+  <si>
+    <t>Phonox</t>
+  </si>
+  <si>
+    <t>Forms: Totally Enormous Extinct Dinosaurs, Heidi &amp; More</t>
+  </si>
+  <si>
+    <t>Forms, fabric</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Heidi, Hugo Massien, Andrew Hill, Grainger, Swoose</t>
+  </si>
+  <si>
+    <t>A Rhondavous with III Points by Space Invaders</t>
+  </si>
+  <si>
+    <t>LinkMiamiRebels, Rhonda INTL, III Points Presents, clubspacemiami</t>
+  </si>
+  <si>
+    <t>Beautiful Swimmers, Benji B, Honey Soundsystem, Goddollars, Kim Ann Foxman, Totally Enormous Extinct Dinosaurs, Brother Dan, Ms. Mada</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Midlands</t>
+  </si>
+  <si>
+    <t>TOTALLY ENORMOUS EXTINCT DINOSAURS</t>
+  </si>
+  <si>
+    <t>Gorgon City Pres. Realm with Lee Foss, Totally Enormous Extinct Dinosaurs &amp; More</t>
+  </si>
+  <si>
+    <t>Avant Gardner</t>
+  </si>
+  <si>
+    <t>Brooklyn Mirage</t>
+  </si>
+  <si>
+    <t>Gorgon City, Lee Foss, Totally Enormous Extinct Dinosaurs, Kyle Kinch</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs with Durante &amp; Friends</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Club Vinyl</t>
+  </si>
+  <si>
+    <t>Nice Age with Totally Enormous Extinct Dinosaurs (DJ Set) / Durante</t>
+  </si>
+  <si>
+    <t>smartbar</t>
+  </si>
+  <si>
+    <t>Smolna: Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Smolna</t>
+  </si>
+  <si>
+    <t>Green Velvet presents: La La Land Experience with Special Guest Carl Craig and More</t>
+  </si>
+  <si>
+    <t>MeanRed, Avant Gardner</t>
+  </si>
+  <si>
+    <t>Green Velvet, Carl Craig, Totally Enormous Extinct Dinosaurs, Prok &amp; Fitch, JDH &amp; Dave P</t>
+  </si>
+  <si>
+    <t>Gorgon City presents Realm</t>
+  </si>
+  <si>
+    <t>Goldenvoice, The Midway</t>
+  </si>
+  <si>
+    <t>The Midway</t>
+  </si>
+  <si>
+    <t>Gorgon City, Totally Enormous Extinct Dinosaurs, Syd Gris</t>
+  </si>
+  <si>
+    <t>A Rhondavous with III Points (Los Angeles)</t>
+  </si>
+  <si>
+    <t>III Points Presents, Rhonda INTL</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Benji B, Honey Soundsystem, Goddollars, Kim Ann Foxman, Seth Troxler, Totally Enormous Extinct Dinosaurs, Arman Nafeei, Ms. Mada, Rick Trainor</t>
+  </si>
+  <si>
+    <t>BEMF 2018 Festival Pass</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Nina Kraviz, Motor City Drum Ensemble, Breakbot, Busy P, DJ Seinfeld, DJ Hell, Massimiliano Pagliara, Mount Kimbie, Totally Enormous Extinct Dinosaurs, Durante, Cranks, Maksim, JDH &amp; Dave P, Amourette, Maroje T, Taraval, Baltra, DJ Richard, J. Albert, Kfeelz, Luka Tacon, Alex Raouf, MikeQ, JETS, Jimmy Edgar, Machinedrum, Aquatic Themes, Marco Weibel, Mawkus, MoMA Ready, AceMo, Heidi Sabertooth, Skulptor, Lychee, SPRKLBB, THE DUCHESS, Willy Soul, Sagotsky, Willy Soul, Seth Magoon, p.leone, EQUISS, Hidden Prism, Shlohmo, D33J, Groundislava</t>
+  </si>
+  <si>
+    <t>A Club Called Rhonda: San Francisco</t>
+  </si>
+  <si>
+    <t>Monarch SF, The Great Northern, Rhonda INTL</t>
+  </si>
+  <si>
+    <t>The Great Northern</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Roosevelt, Martyn Bootyspoon, Goddollars, DJ M3</t>
+  </si>
+  <si>
+    <t>Noise Complaint - 2020: A New Year's Space Odyssey</t>
+  </si>
+  <si>
+    <t>The Monkey Loft</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Walker &amp; Royce, D'Jessique</t>
+  </si>
+  <si>
+    <t>RVDIOVCTIVE Miami Music Week 2022 at 1-800 Lucky</t>
+  </si>
+  <si>
+    <t>Unsourced, RVDIOVCTIVE</t>
+  </si>
+  <si>
+    <t>1-800-Lucky</t>
+  </si>
+  <si>
+    <t>Devon James, Doorly, Felix Da Housecat, Francesca Lombardo, QRTR, Skream, Tara Brooks, Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Five Weeks At The Disco (Day &amp; Night): Late Nite Tuff Guy + Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Pleasurehood, Late Nite Tuff Guy: Five Weeks At The Disco, XOYO, Columbo</t>
+  </si>
+  <si>
+    <t>Late Nite Tuff Guy, Totally Enormous Extinct Dinosaurs, Birdee</t>
+  </si>
+  <si>
+    <t>Nice Age Tour with Totally Enormous Extinct Dinosaurs &amp; Durante</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Durante, DJ M3, MPHD</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs [DJ Set] - Durante</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Razz Clubs: Totally Enourmous Extinct Dinosaurs Dj Set, Kastil Live ...</t>
+  </si>
+  <si>
+    <t>Razzmatazz</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Baldo, Kastil</t>
+  </si>
+  <si>
+    <t>Pure Pacha</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Pacha Ibiza</t>
+  </si>
+  <si>
+    <t>Martin Solveig, 2ManyDJs, Totally Enormous Extinct Dinosaurs, Sebastian Gamboa, DJ Pippi, Willie Graff</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Republic Nola</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (dj set)</t>
+  </si>
+  <si>
+    <t>LinkMiamiRebels, floydmiami, clubspacemiami</t>
+  </si>
+  <si>
+    <t>Floyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totally Enormous Extinct Dinosaurs </t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Casa Morelos</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Sound presents SG Lewis with Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>SoundNightclub</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>SG Lewis, Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Tiga, Totally Enormous Extinct Dinosaurs, Martin Buttrich, Guti &amp; Edu Imbernon</t>
+  </si>
+  <si>
+    <t>The Midway SF, Modular</t>
+  </si>
+  <si>
+    <t>Tiga, Totally Enormous Extinct Dinosaurs, Martin Buttrich, Guti, Edu Imbernon, Pedro Arbulu, Rachel Torro</t>
+  </si>
+  <si>
+    <t>S&amp;T Miami and III Points present Todd Terje, Totally Enormous Extinct Dinosaurs, and Tim Sweeney</t>
+  </si>
+  <si>
+    <t>The Factory at Magic City Studios</t>
+  </si>
+  <si>
+    <t>Todd Terje, Totally Enormous Extinct Dinosaurs, Tim Sweeney</t>
+  </si>
+  <si>
+    <t>Minimal Effort: Halloween 2016</t>
+  </si>
+  <si>
+    <t>Los Angeles Center Studios</t>
+  </si>
+  <si>
+    <t>Pete Tong, Tiga, Coyu, Pete Tong, Tiga, Coyu, Dosem, Edu Imbernon, Human Resources, Jonas Rathsman, Kidnap, Mark Farina, Satori, Steve Bug, Tensnake, Thugfucker, Totally Enormous Extinct Dinosaurs, Waze &amp; Odyssey, JIA, Benjamin K, PATRICIO, Matt Black, KIMOU, Cooper Saver, Masha, Shmitty</t>
+  </si>
+  <si>
+    <t>Fngrs Crssd presents: Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Bang Bang</t>
+  </si>
+  <si>
+    <t>Sundays at Phonox: Totally Enormous Extinct Dinosaurs (DJ set)</t>
+  </si>
+  <si>
+    <t>Columbo, Phonox</t>
+  </si>
+  <si>
+    <t>Music Lab with Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Chalet Berlin, feingefuehl</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Chalet</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Sofia Kourtesis, Local Suicide, Bordello, Perel</t>
+  </si>
+  <si>
+    <t>Holy Ship 8.0 2017</t>
+  </si>
+  <si>
+    <t>Holy Ship</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Port Canaveral</t>
+  </si>
+  <si>
+    <t>DJ Snake, Tchami, Duke Dumont, Boys Noize, A-Trak, Big Gigantic, Rudimental, Kill The Noise, Destructo, Justin Martin, Snails, Rüfüs Du Sol, Bob Moses, Busy P, TroyBoi, Totally Enormous Extinct Dinosaurs, Wax Motif, Jimmy Edgar, Danny Daze, Shiba San, Jonas Rathsman, Amtrac, Kastle, Nina Las Vegas, Curses, Louisahhh, Ardalan, Gina Turner, Spank Rock, Christian Martin, Rory Phillips, Will Clarke, Mambo Brothers, SITA, Kaz James, Aazar, Cardopusher, Dena Amy, Frames</t>
+  </si>
+  <si>
+    <t>Crssd After Dark: Totally Enormous Extinct Dinosaurs (DJ Set)</t>
+  </si>
+  <si>
+    <t>Electric presents Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Galway</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Electric Garden &amp; Theatre</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Paul Belton</t>
+  </si>
+  <si>
+    <t>10 Years of Greco-Roman with Teed &amp; Full Nelson x Retro</t>
+  </si>
+  <si>
+    <t>Sunkissed, Jaeger</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Jaeger</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Full Nelson</t>
+  </si>
+  <si>
+    <t>Claire: Totally Enormous Extinct Dinosaurs, Awanto 3 &amp; Kuma</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Awanto 3, Kuma</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Claude VonStroke Presents The Birdhouse</t>
+  </si>
+  <si>
+    <t>DiskoLab</t>
+  </si>
+  <si>
+    <t>Delano Hotel</t>
+  </si>
+  <si>
+    <t>Claude VonStroke, Danny Daze, Fur Coat, Jesse Rose, Justin Jay, Matthias Tanzmann, Soul Clap, Tiga, Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>AfterHours Anonymous</t>
+  </si>
+  <si>
+    <t>Beta Nightclub</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs and Dimitri From Paris at Treetops: Let Them Eat Cake</t>
+  </si>
+  <si>
+    <t>Treetops!</t>
+  </si>
+  <si>
+    <t>House Of Yes | ONYX Room</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Dimitri From Paris, Teddy Roosevelt</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (Dj Set)</t>
+  </si>
+  <si>
+    <t>Groovelives</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>La 3 Club</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Gregori, Five Points</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs - A Journey Around the Galaxies</t>
+  </si>
+  <si>
+    <t>Troupe London</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>The Blue Mountain</t>
+  </si>
+  <si>
+    <t>Hidden Agenda, District 8</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>District 8</t>
+  </si>
+  <si>
+    <t>Framework presents Totally Enormous Extinct Dinosaurs (DJ Set)</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Goddollars</t>
+  </si>
+  <si>
+    <t>Hidden Agenda, Hidden Agenda, District 8</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, DJ Deece</t>
+  </si>
+  <si>
+    <t>[CANCELLED] Totally Enormous Extinct Dinosaurs - A Journey Around the Galaxies</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Mint Club</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (DJ Set), Ria Bird, Evan Michael, Rose Kourts</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Evan Michael, Rose Kourts</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Tasker, Capulet, Jack M</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Club Social Rhodesia</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Andre VII, Theus Mago, Illusive Man</t>
+  </si>
+  <si>
+    <t>Shiba San &amp; Totally Enormous Extinct Dinosaurs by Link Miami Rebels</t>
+  </si>
+  <si>
+    <t>Shiba San, Totally Enormous Extinct Dinosaurs, Danyelino, Thunderpony</t>
+  </si>
+  <si>
+    <t>Output Club</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (All Night Long)</t>
+  </si>
+  <si>
+    <t>Stereo Montreal</t>
+  </si>
+  <si>
+    <t>StereoBar</t>
+  </si>
+  <si>
+    <t>Thehundred presents - Totally Enormous Extinct Dinosaurs DJ Set</t>
+  </si>
+  <si>
+    <t>TheHundred Presents</t>
+  </si>
+  <si>
+    <t>RBMA Pres. Block Party with Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Red Bull Music Academy</t>
+  </si>
+  <si>
+    <t>TBA - Guadalajara</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Zombies In Miami</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs DJ Set</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>Warm Up 2015: Moritz von Oswald, Atom™</t>
+  </si>
+  <si>
+    <t>MoMA PS1</t>
+  </si>
+  <si>
+    <t>Moritz von Oswald, Atom™, Totally Enormous Extinct Dinosaurs, Jlin, Dorian Concept, Rabit</t>
+  </si>
+  <si>
+    <t>The i AM presents: Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>The i AM</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Beta &amp; Kappa</t>
+  </si>
+  <si>
+    <t>Ahoy! Iboat Birthday: Totally Enormous Extinct Dinosaurs, Florian Gauthier, Maxi Fischer</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>I-Boat</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Florian Gauthier</t>
+  </si>
+  <si>
+    <t>Boxed Off Festival 2015 - NO Tickets Left</t>
+  </si>
+  <si>
+    <t>Boxed Off Festival</t>
+  </si>
+  <si>
+    <t>Fairyhouse Racecourse</t>
+  </si>
+  <si>
+    <t>Andhim, Breen, Daniel Avery, Dense &amp; Pika, Detroit Swindle, HNNY, Ian O'Donovan, Jonas Rathsman, Nina Kraviz, Patrick Topping, Pete Oak, Sam Paganini, Shall Ocin, Totally Enormous Extinct Dinosaurs, Conor Hanson, DJ Deece, Gavin Francis, Rosbeg</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Lxury &amp; Opal People</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Lxury, Opal, Faro</t>
+  </si>
+  <si>
+    <t>Brunch #6: Totally Enormous Extinct Dinosaurs Dj Set + Kim Ann Foxman + Awwz</t>
+  </si>
+  <si>
+    <t>Plaza Mayor de El Poble Espanyol</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Kim Ann Foxman, AWWZ</t>
+  </si>
+  <si>
+    <t>Studio 4/4</t>
+  </si>
+  <si>
+    <t>SonarSound Santiago</t>
+  </si>
+  <si>
+    <t>Sónar Festival / Advanced Music</t>
+  </si>
+  <si>
+    <t>Chile</t>
   </si>
   <si>
     <t>South America</t>
   </si>
   <si>
-    <t>Manuel De La Mare, Boghosian, Eddie M</t>
+    <t>Hangares de Suricato</t>
+  </si>
+  <si>
+    <t>The Chemical Brothers, Hot Chip, Gorgon City, Brodinski, Modeselektor, Eats Everything, DJ Tennis, Totally Enormous Extinct Dinosaurs, Recondite, Evian Christ, Kiasmos, Atom™, Robin Fox, Pional, beGun, DJ Raff, DJ Caso, Dengue Dengue Dengue!, Alejandro Vivanco, Umho, Valesuchi, Daniel Klauser, Wask, Zopelar, Alejandro Paz, Nabucodonosor, Fernanda Arrau, Fantasna, Dementira, Motivado</t>
+  </si>
+  <si>
+    <t>Razz Clubs: Teed, Roosevelt DJ Set + ..</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Roosevelt, Full Nelson, Robert Bergman</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Boondocks</t>
+  </si>
+  <si>
+    <t>Seismic Dance Event 2018</t>
+  </si>
+  <si>
+    <t>Carson Creek Ranch</t>
+  </si>
+  <si>
+    <t>Amtrac, Armand Van Helden, Claptone, Cut Snake, Duke Dumont, GAWP, Green Velvet, Golf Clap, Justin Jay, Lane 8, Latmun, Lee Reynolds, Marbs, Mikey Lion, Rrotik, RYBO, Sacha Robotti, Tinlicker, Totally Enormous Extinct Dinosaurs, ZDS</t>
+  </si>
+  <si>
+    <t>Sónar Bogotá</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Corferias</t>
+  </si>
+  <si>
+    <t>The Chemical Brothers, Hot Chip, Dixon, Gorgon City, Brodinski, Recondite, Totally Enormous Extinct Dinosaurs, Kiasmos, Evian Christ, Pional, DJ Raff, Dany F</t>
+  </si>
+  <si>
+    <t>Sweat It Out Miami</t>
+  </si>
+  <si>
+    <t>Shelborne Wyndham Grand South Beach</t>
+  </si>
+  <si>
+    <t>Gorgon City, What So Not, Yolanda Be Cool, Totally Enormous Extinct Dinosaurs, Amtrac, Cut Snake, Jesse Rose, Moon Boots, Sinden</t>
+  </si>
+  <si>
+    <t>The Island Live</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>The Island</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Ara Koufax, Dreems</t>
+  </si>
+  <si>
+    <t>More or Less Art Walk Special Feat. Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>moreorless</t>
+  </si>
+  <si>
+    <t>Bardot</t>
+  </si>
+  <si>
+    <t>Field Day 2016</t>
+  </si>
+  <si>
+    <t>Fuzzy</t>
+  </si>
+  <si>
+    <t>The Domain</t>
+  </si>
+  <si>
+    <t>Disclosure, Flight Facilities, Pusha T, RL Grime, Skepta, Boys Noize, Seth Troxler, Zeds Dead, Totally Enormous Extinct Dinosaurs, Daniel Avery, Com Truise, The Avener, Sam Feldt</t>
+  </si>
+  <si>
+    <t>Shut The Front Door, The Brickworks</t>
+  </si>
+  <si>
+    <t>The Brickworks</t>
+  </si>
+  <si>
+    <t>Sónar Buenos Aires</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Complejo Al Rio</t>
+  </si>
+  <si>
+    <t>The Chemical Brothers, Hot Chip, Gorgon City, Brodinski, Modeselektor, DJ Tennis, Recondite, Evian Christ, Kiasmos, Pional, Totally Enormous Extinct Dinosaurs, Atom™, Robin Fox, beGun, Leandro Fresco, Diego Ro-k, Djs Pareja, Jay West, DJ Caso, Daniela Ramos</t>
+  </si>
+  <si>
+    <t>Miami Music Week All Access Pass</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Joseph Capriati, Paco Osuna, Guti, Seth Troxler, The Martinez Brothers, Claude VonStroke, Totally Enormous Extinct Dinosaurs, Maceo Plex, Nicole Moudaber, Guy Gerber, Cassy, Bill Patrick</t>
+  </si>
+  <si>
+    <t>Rinsed: Tea &amp; Biscuits</t>
+  </si>
+  <si>
+    <t>RINSED.IT</t>
+  </si>
+  <si>
+    <t>LinkMiamiRebels, storymiami</t>
+  </si>
+  <si>
+    <t>Story Nightclub</t>
+  </si>
+  <si>
+    <t>Outlines: Brodinski, Ryan Hemsworth &amp; Totally Enormous Extinct Dinosaurs (DJ Set)</t>
+  </si>
+  <si>
+    <t>TBA - Seattle</t>
+  </si>
+  <si>
+    <t>Brodinski, Ryan Hemsworth, Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (DJ SET) with Beautiful Swimmers</t>
+  </si>
+  <si>
+    <t>U Street Music Hall</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Beautiful Swimmers</t>
+  </si>
+  <si>
+    <t>III Points 2015</t>
+  </si>
+  <si>
+    <t>III Points Presents</t>
+  </si>
+  <si>
+    <t>Mana Wynwood</t>
+  </si>
+  <si>
+    <t>Nicolas Jaar, Run The Jewels, Panda Bear, Bonobo, Warpaint, Toro Y Moi, The Martinez Brothers, Totally Enormous Extinct Dinosaurs, Shlohmo, Damian Lazarus, Aluna George, Ghostface Killah, MF Doom, Mano Le Tough, Danny Daze, The Field, Soul Clap, DJ Tennis, Roman Flugel, Shigeto, Jacques Greene, XXYYXX, Bicep, Taylor McFerrin, Wolf + Lamb, Chrome Sparks, Lazaro Casanova, Nick Monaco, Jesse Perez, TANGOWERK, Life on Planets, Ohashi, Kid Moss, Illsnafu, Local Artist, Mr Brown, Uchi, Will Buck, JBZ, Thunderpony, Dude Skywalker, Ms. Mada, Virgo, Pirate Stereo, Jeremy Ismael, Santiago Caballero, Sean Drake</t>
+  </si>
+  <si>
+    <t>Outlines: Brodinski, Ryan Hemsworth, Shlohmo &amp; Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Mohawk</t>
+  </si>
+  <si>
+    <t>Brodinski, Ryan Hemsworth, Shlohmo, Totally Enormous Extinct Dinosaurs</t>
+  </si>
+  <si>
+    <t>Marquee New York</t>
+  </si>
+  <si>
+    <t>Marquee</t>
+  </si>
+  <si>
+    <t>GRECO-ROMAN with Roosevelt (DJ set), Totally Enormous Extinct Dinosaurs (DJ set), Full Nelson</t>
+  </si>
+  <si>
+    <t>Prince Charles</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Roosevelt, Full Nelson, Greco-Roman Soundsystem</t>
+  </si>
+  <si>
+    <t>Riverside Groove 2015</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Sindbad's Restaurant and Marina</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Kevin Saunderson, Matthew Dear, Wolf + Lamb, Egyptian Lover, Jamie Jupiter, Nick Monaco, Flava D, Asher Perkins, Dalouda, Doug English, Gabi, Golf Clap, Jay Biggs, John Johr, Kevin Ritchey, Ross Regs</t>
+  </si>
+  <si>
+    <t>Ultra Music Festival - Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultra Music Festival </t>
+  </si>
+  <si>
+    <t>Bayfront Park</t>
+  </si>
+  <si>
+    <t>Tiesto, Avicii, Alesso, Afrojack, Dash Berlin, Oliver Heldens, 3LAU, Royksopp, Chromeo, ODESZA, Todd Terje, Bakermat, Carl Cox, Carl Cox, Marco Carola, Adam Beyer, Ida Engberg, Hot Since 82, Jon Rundell, Maceo Plex, Tale Of Us, Dixon, Sasha, Guy J, Mano Le Tough, DJ Tennis, Totally Enormous Extinct Dinosaurs, Zeds Dead, Andy C, Excision, 12th Planet, Yellow Claw, EDX, Marcus Schossow, Don Diablo, Firebeatz, Michael Brun, VINAI, Rebecca &amp; Fiona, DJ Icey, DJ Nate</t>
+  </si>
+  <si>
+    <t>Annie Mac Lost</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Multiple Venues - Malta</t>
+  </si>
+  <si>
+    <t>Annie Mac, Breach, Carl Craig, Duke Dumont, Eats Everything, Green Velvet, Hot Since 82, Jamie Jones, Kaytranada, Kerri Chandler, The Martinez Brothers, Ten Walls, Tiga, Totally Enormous Extinct Dinosaurs, Artwork, Hannah Wants, Route 94, DJ EZ</t>
+  </si>
+  <si>
+    <t>A CLUB CALLED RHONDA: DEATH BECOMES HER (SF) w/ Totally Enormous Extinct Dinosaurs, Soul Clap,</t>
+  </si>
+  <si>
+    <t>Mezzanine</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs, Metro Area, Soul Clap, Tornado Wallace, Goddollars</t>
+  </si>
+  <si>
+    <t>Electric Daisy Carnival 2016</t>
+  </si>
+  <si>
+    <t>Las Vegas Motor Speedway</t>
+  </si>
+  <si>
+    <t>12th Planet, A-Trak, Above &amp; Beyond, Ventura, Adam Beyer, Adventure Club, Afrojack, Alan Fitzpatrick, Alesso, Aly &amp; Fila, Amtrac, Andy C, Angerfist, Armand Van Helden, Armin van Buuren, Astrix, Axwell, Ingrosso, Bad Boy Bill, Bad Company UK, Bart Skils, Billy Kenny, Botnek, Brad Moontribe, Brennan Heart, Bro Safari, Brookes Brothers, Caspa, Rusko, Chris Lake, Chris Leibing, Cookie Monsta, Coone, Craig Williams, Crisis Era, Culture Shock, Cyantific, Da Tweekaz, Dada Life, Danny Howard, Darren Styles, Dash Berlin, Datsik, Delta Heavy, Deorro, Derrick May, DJ Snake, Doc Martin, Doctor P, Don Diablo, Duke Dumont, Dusky, Eptic, Eric Prydz, Excision, Ferry Corsten, Flux Pavilion, Frankee, Loadstar, Frankie Bones, Funtcase, Galantis, Gareth Emery, Giraffage, Hannah Wants, Hardwell, Hermitude, Hot Since 82, J. Phlip, John Askew, John O'Callaghan, Juan Atkins, Julia Govor, Kaskade, Kasra, Knife Party, KSHMR, Lane 8, Lenny Dee, LNY TNZ, Loco Dice, MAKJ, Mark Farina, Markus Schulz, Martin Garrix, Martin Solveig, Maya Jane Coles, Oliver Heldens, Pan-Pot, Paul Van Dyk, Pendulum, Richie Hawtin, RL Grime, Shiba San, Snails, The Chainsmokers, The Magician, Tiesto, Tommy Trash, Totally Enormous Extinct Dinosaurs, TroyBoi, Tycho, Umek, Yellow Claw, Zedd, Zomboy</t>
+  </si>
+  <si>
+    <t>Totally Enormous Extinct Dinosaurs (DJ set) A Very Nice Age Christmas</t>
+  </si>
+  <si>
+    <t>Hidden Agenda: Totally Enormous Extinct Dinosaurs (Dj Set)</t>
+  </si>
+  <si>
+    <t>IRO at Opium</t>
   </si>
 </sst>
 </file>
@@ -408,20 +1959,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -461,28 +2014,4394 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>166</v>
+      </c>
+      <c r="J34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>173</v>
+      </c>
+      <c r="J36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" t="s">
+        <v>179</v>
+      </c>
+      <c r="J37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>185</v>
+      </c>
+      <c r="J38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>208</v>
+      </c>
+      <c r="J42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" t="s">
+        <v>216</v>
+      </c>
+      <c r="H44" t="s">
+        <v>217</v>
+      </c>
+      <c r="I44" t="s">
+        <v>218</v>
+      </c>
+      <c r="J44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s">
+        <v>223</v>
+      </c>
+      <c r="J45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>227</v>
+      </c>
+      <c r="J46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>231</v>
+      </c>
+      <c r="J47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" t="s">
+        <v>203</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s">
+        <v>204</v>
+      </c>
+      <c r="J48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" t="s">
+        <v>240</v>
+      </c>
+      <c r="F50" t="s">
+        <v>241</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s">
+        <v>242</v>
+      </c>
+      <c r="J50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" t="s">
+        <v>245</v>
+      </c>
+      <c r="F51" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s">
+        <v>246</v>
+      </c>
+      <c r="J51" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s">
+        <v>250</v>
+      </c>
+      <c r="J52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" t="s">
+        <v>253</v>
+      </c>
+      <c r="F53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s">
+        <v>253</v>
+      </c>
+      <c r="J53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" t="s">
+        <v>256</v>
+      </c>
+      <c r="F54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s">
+        <v>256</v>
+      </c>
+      <c r="J54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>257</v>
+      </c>
+      <c r="E55" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s">
+        <v>253</v>
+      </c>
+      <c r="J55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" t="s">
+        <v>261</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" t="s">
+        <v>263</v>
+      </c>
+      <c r="F57" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s">
+        <v>263</v>
+      </c>
+      <c r="J57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s">
+        <v>136</v>
+      </c>
+      <c r="J58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>268</v>
+      </c>
+      <c r="J59" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>270</v>
+      </c>
+      <c r="F60" t="s">
+        <v>271</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>272</v>
+      </c>
+      <c r="J60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61" t="s">
+        <v>274</v>
+      </c>
+      <c r="F61" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
+        <v>274</v>
+      </c>
+      <c r="J61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" t="s">
+        <v>276</v>
+      </c>
+      <c r="G62" t="s">
+        <v>277</v>
+      </c>
+      <c r="H62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s">
+        <v>278</v>
+      </c>
+      <c r="J62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="s">
+        <v>279</v>
+      </c>
+      <c r="E63" t="s">
+        <v>280</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>268</v>
+      </c>
+      <c r="J63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" t="s">
+        <v>282</v>
+      </c>
+      <c r="E64" t="s">
+        <v>283</v>
+      </c>
+      <c r="F64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>284</v>
+      </c>
+      <c r="J64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E65" t="s">
+        <v>287</v>
+      </c>
+      <c r="F65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>288</v>
+      </c>
+      <c r="J65" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s">
+        <v>290</v>
+      </c>
+      <c r="E66" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>291</v>
+      </c>
+      <c r="J66" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>293</v>
+      </c>
+      <c r="E67" t="s">
+        <v>294</v>
+      </c>
+      <c r="F67" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>295</v>
+      </c>
+      <c r="J67" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" t="s">
+        <v>297</v>
+      </c>
+      <c r="F68" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>298</v>
+      </c>
+      <c r="J68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>300</v>
+      </c>
+      <c r="E69" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s">
+        <v>302</v>
+      </c>
+      <c r="J69" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" t="s">
+        <v>304</v>
+      </c>
+      <c r="E70" t="s">
+        <v>305</v>
+      </c>
+      <c r="F70" t="s">
+        <v>70</v>
+      </c>
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70" t="s">
+        <v>246</v>
+      </c>
+      <c r="J70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" t="s">
+        <v>307</v>
+      </c>
+      <c r="E71" t="s">
+        <v>295</v>
+      </c>
+      <c r="F71" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>295</v>
+      </c>
+      <c r="J71" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>309</v>
+      </c>
+      <c r="E72" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>119</v>
+      </c>
+      <c r="J72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73" t="s">
+        <v>311</v>
+      </c>
+      <c r="F73" t="s">
+        <v>202</v>
+      </c>
+      <c r="G73" t="s">
+        <v>203</v>
+      </c>
+      <c r="H73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" t="s">
+        <v>312</v>
+      </c>
+      <c r="J73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" t="s">
+        <v>314</v>
+      </c>
+      <c r="F74" t="s">
+        <v>315</v>
+      </c>
+      <c r="G74" t="s">
+        <v>203</v>
+      </c>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>316</v>
+      </c>
+      <c r="J74" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" t="s">
+        <v>318</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>319</v>
+      </c>
+      <c r="J75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" t="s">
+        <v>320</v>
+      </c>
+      <c r="E76" t="s">
+        <v>321</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
+        <v>322</v>
+      </c>
+      <c r="J76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" t="s">
+        <v>323</v>
+      </c>
+      <c r="F77" t="s">
+        <v>324</v>
+      </c>
+      <c r="G77" t="s">
+        <v>325</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>326</v>
+      </c>
+      <c r="J77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>327</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>328</v>
+      </c>
+      <c r="E78" t="s">
+        <v>329</v>
+      </c>
+      <c r="F78" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s">
+        <v>330</v>
+      </c>
+      <c r="J78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>333</v>
+      </c>
+      <c r="E79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F79" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>284</v>
+      </c>
+      <c r="J79" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" t="s">
+        <v>336</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>337</v>
+      </c>
+      <c r="J80" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D81" t="s">
+        <v>339</v>
+      </c>
+      <c r="F81" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>340</v>
+      </c>
+      <c r="J81" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>332</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" t="s">
+        <v>342</v>
+      </c>
+      <c r="E82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" t="s">
+        <v>64</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>343</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" t="s">
+        <v>344</v>
+      </c>
+      <c r="E83" t="s">
+        <v>345</v>
+      </c>
+      <c r="F83" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83" t="s">
+        <v>256</v>
+      </c>
+      <c r="J83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>332</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" t="s">
+        <v>347</v>
+      </c>
+      <c r="F84" t="s">
+        <v>348</v>
+      </c>
+      <c r="G84" t="s">
+        <v>157</v>
+      </c>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s">
+        <v>349</v>
+      </c>
+      <c r="J84" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" t="s">
+        <v>351</v>
+      </c>
+      <c r="E85" t="s">
+        <v>352</v>
+      </c>
+      <c r="F85" t="s">
+        <v>353</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>354</v>
+      </c>
+      <c r="J85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" t="s">
+        <v>356</v>
+      </c>
+      <c r="E86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>343</v>
+      </c>
+      <c r="J86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" t="s">
+        <v>357</v>
+      </c>
+      <c r="F87" t="s">
+        <v>358</v>
+      </c>
+      <c r="G87" t="s">
+        <v>359</v>
+      </c>
+      <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s">
+        <v>360</v>
+      </c>
+      <c r="J87" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88" t="s">
+        <v>362</v>
+      </c>
+      <c r="E88" t="s">
+        <v>363</v>
+      </c>
+      <c r="F88" t="s">
+        <v>364</v>
+      </c>
+      <c r="G88" t="s">
+        <v>365</v>
+      </c>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s">
+        <v>366</v>
+      </c>
+      <c r="J88" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" t="s">
+        <v>368</v>
+      </c>
+      <c r="E89" t="s">
+        <v>369</v>
+      </c>
+      <c r="F89" t="s">
+        <v>370</v>
+      </c>
+      <c r="G89" t="s">
+        <v>371</v>
+      </c>
+      <c r="H89" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" t="s">
+        <v>369</v>
+      </c>
+      <c r="J89" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>332</v>
+      </c>
+      <c r="B90" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" t="s">
+        <v>373</v>
+      </c>
+      <c r="D90" t="s">
+        <v>374</v>
+      </c>
+      <c r="E90" t="s">
+        <v>375</v>
+      </c>
+      <c r="F90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>376</v>
+      </c>
+      <c r="J90" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>332</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" t="s">
+        <v>378</v>
+      </c>
+      <c r="F91" t="s">
+        <v>271</v>
+      </c>
+      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
+        <v>379</v>
+      </c>
+      <c r="J91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>332</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" t="s">
+        <v>380</v>
+      </c>
+      <c r="E92" t="s">
+        <v>381</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>382</v>
+      </c>
+      <c r="J92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D93" t="s">
+        <v>384</v>
+      </c>
+      <c r="E93" t="s">
+        <v>385</v>
+      </c>
+      <c r="F93" t="s">
+        <v>386</v>
+      </c>
+      <c r="G93" t="s">
+        <v>203</v>
+      </c>
+      <c r="H93" t="s">
+        <v>31</v>
+      </c>
+      <c r="I93" t="s">
+        <v>387</v>
+      </c>
+      <c r="J93" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>389</v>
+      </c>
+      <c r="E94" t="s">
+        <v>390</v>
+      </c>
+      <c r="F94" t="s">
+        <v>391</v>
+      </c>
+      <c r="G94" t="s">
+        <v>71</v>
+      </c>
+      <c r="H94" t="s">
+        <v>72</v>
+      </c>
+      <c r="I94" t="s">
+        <v>392</v>
+      </c>
+      <c r="J94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
+        <v>393</v>
+      </c>
+      <c r="F95" t="s">
+        <v>394</v>
+      </c>
+      <c r="G95" t="s">
+        <v>359</v>
+      </c>
+      <c r="H95" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" t="s">
+        <v>395</v>
+      </c>
+      <c r="J95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B96" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C96" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" t="s">
+        <v>396</v>
+      </c>
+      <c r="F96" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
+        <v>330</v>
+      </c>
+      <c r="J96" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>332</v>
+      </c>
+      <c r="B97" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" t="s">
+        <v>398</v>
+      </c>
+      <c r="F97" t="s">
+        <v>394</v>
+      </c>
+      <c r="G97" t="s">
+        <v>359</v>
+      </c>
+      <c r="H97" t="s">
+        <v>31</v>
+      </c>
+      <c r="I97" t="s">
+        <v>395</v>
+      </c>
+      <c r="J97" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>332</v>
+      </c>
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" t="s">
+        <v>400</v>
+      </c>
+      <c r="E98" t="s">
+        <v>390</v>
+      </c>
+      <c r="F98" t="s">
+        <v>401</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98" t="s">
+        <v>402</v>
+      </c>
+      <c r="J98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" t="s">
+        <v>403</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>332</v>
+      </c>
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" t="s">
+        <v>389</v>
+      </c>
+      <c r="E100" t="s">
+        <v>390</v>
+      </c>
+      <c r="F100" t="s">
+        <v>135</v>
+      </c>
+      <c r="G100" t="s">
+        <v>71</v>
+      </c>
+      <c r="H100" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100" t="s">
+        <v>405</v>
+      </c>
+      <c r="J100" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>332</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" t="s">
+        <v>407</v>
+      </c>
+      <c r="G101" t="s">
+        <v>325</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s">
+        <v>408</v>
+      </c>
+      <c r="J101" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
+        <v>410</v>
+      </c>
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s">
+        <v>49</v>
+      </c>
+      <c r="J102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>332</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>181</v>
+      </c>
+      <c r="D103" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103" t="s">
+        <v>412</v>
+      </c>
+      <c r="F103" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s">
+        <v>413</v>
+      </c>
+      <c r="J103" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>332</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>414</v>
+      </c>
+      <c r="E104" t="s">
+        <v>415</v>
+      </c>
+      <c r="F104" t="s">
+        <v>189</v>
+      </c>
+      <c r="G104" t="s">
+        <v>190</v>
+      </c>
+      <c r="H104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s">
+        <v>416</v>
+      </c>
+      <c r="J104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>332</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" t="s">
+        <v>417</v>
+      </c>
+      <c r="E105" t="s">
+        <v>418</v>
+      </c>
+      <c r="F105" t="s">
+        <v>271</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s">
+        <v>272</v>
+      </c>
+      <c r="J105" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>332</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>149</v>
+      </c>
+      <c r="D106" t="s">
+        <v>419</v>
+      </c>
+      <c r="E106" t="s">
+        <v>420</v>
+      </c>
+      <c r="F106" t="s">
+        <v>325</v>
+      </c>
+      <c r="G106" t="s">
+        <v>325</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>421</v>
+      </c>
+      <c r="J106" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>423</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>424</v>
+      </c>
+      <c r="F107" t="s">
+        <v>425</v>
+      </c>
+      <c r="G107" t="s">
+        <v>190</v>
+      </c>
+      <c r="H107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" t="s">
+        <v>426</v>
+      </c>
+      <c r="J107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>423</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>427</v>
+      </c>
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s">
+        <v>428</v>
+      </c>
+      <c r="J108" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>332</v>
+      </c>
+      <c r="B109" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" t="s">
+        <v>430</v>
+      </c>
+      <c r="E109" t="s">
+        <v>431</v>
+      </c>
+      <c r="F109" t="s">
+        <v>241</v>
+      </c>
+      <c r="G109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I109" t="s">
+        <v>242</v>
+      </c>
+      <c r="J109" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>423</v>
+      </c>
+      <c r="B110" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" t="s">
+        <v>132</v>
+      </c>
+      <c r="D110" t="s">
+        <v>433</v>
+      </c>
+      <c r="F110" t="s">
+        <v>434</v>
+      </c>
+      <c r="G110" t="s">
+        <v>107</v>
+      </c>
+      <c r="H110" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" t="s">
+        <v>435</v>
+      </c>
+      <c r="J110" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>423</v>
+      </c>
+      <c r="B111" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" t="s">
+        <v>373</v>
+      </c>
+      <c r="D111" t="s">
+        <v>437</v>
+      </c>
+      <c r="E111" t="s">
+        <v>438</v>
+      </c>
+      <c r="F111" t="s">
+        <v>359</v>
+      </c>
+      <c r="G111" t="s">
+        <v>359</v>
+      </c>
+      <c r="H111" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" t="s">
+        <v>439</v>
+      </c>
+      <c r="J111" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" t="s">
+        <v>149</v>
+      </c>
+      <c r="D112" t="s">
+        <v>441</v>
+      </c>
+      <c r="E112" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" t="s">
+        <v>123</v>
+      </c>
+      <c r="G112" t="s">
+        <v>71</v>
+      </c>
+      <c r="H112" t="s">
+        <v>72</v>
+      </c>
+      <c r="I112" t="s">
+        <v>124</v>
+      </c>
+      <c r="J112" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>332</v>
+      </c>
+      <c r="B113" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" t="s">
+        <v>443</v>
+      </c>
+      <c r="F113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G113" t="s">
+        <v>203</v>
+      </c>
+      <c r="H113" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" t="s">
+        <v>444</v>
+      </c>
+      <c r="J113" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>423</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>225</v>
+      </c>
+      <c r="D114" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" t="s">
+        <v>446</v>
+      </c>
+      <c r="F114" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s">
+        <v>42</v>
+      </c>
+      <c r="J114" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>423</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>46</v>
+      </c>
+      <c r="D115" t="s">
+        <v>447</v>
+      </c>
+      <c r="E115" t="s">
+        <v>448</v>
+      </c>
+      <c r="F115" t="s">
+        <v>449</v>
+      </c>
+      <c r="G115" t="s">
+        <v>449</v>
+      </c>
+      <c r="H115" t="s">
+        <v>450</v>
+      </c>
+      <c r="I115" t="s">
+        <v>451</v>
+      </c>
+      <c r="J115" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" t="s">
+        <v>193</v>
+      </c>
+      <c r="D116" t="s">
+        <v>453</v>
+      </c>
+      <c r="F116" t="s">
+        <v>202</v>
+      </c>
+      <c r="G116" t="s">
+        <v>203</v>
+      </c>
+      <c r="H116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" t="s">
+        <v>312</v>
+      </c>
+      <c r="J116" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>332</v>
+      </c>
+      <c r="B117" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" t="s">
+        <v>67</v>
+      </c>
+      <c r="D117" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" t="s">
+        <v>95</v>
+      </c>
+      <c r="F117" t="s">
+        <v>455</v>
+      </c>
+      <c r="G117" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" t="s">
+        <v>456</v>
+      </c>
+      <c r="J117" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>61</v>
+      </c>
+      <c r="D118" t="s">
+        <v>457</v>
+      </c>
+      <c r="E118" t="s">
+        <v>95</v>
+      </c>
+      <c r="F118" t="s">
+        <v>96</v>
+      </c>
+      <c r="G118" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" t="s">
+        <v>458</v>
+      </c>
+      <c r="J118" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>423</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" t="s">
+        <v>460</v>
+      </c>
+      <c r="E119" t="s">
+        <v>448</v>
+      </c>
+      <c r="F119" t="s">
+        <v>461</v>
+      </c>
+      <c r="G119" t="s">
+        <v>462</v>
+      </c>
+      <c r="H119" t="s">
+        <v>450</v>
+      </c>
+      <c r="I119" t="s">
+        <v>463</v>
+      </c>
+      <c r="J119" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>332</v>
+      </c>
+      <c r="B120" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" t="s">
+        <v>310</v>
+      </c>
+      <c r="D120" t="s">
+        <v>465</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" t="s">
+        <v>466</v>
+      </c>
+      <c r="J120" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>332</v>
+      </c>
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" t="s">
+        <v>468</v>
+      </c>
+      <c r="F121" t="s">
+        <v>469</v>
+      </c>
+      <c r="G121" t="s">
+        <v>216</v>
+      </c>
+      <c r="H121" t="s">
+        <v>217</v>
+      </c>
+      <c r="I121" t="s">
+        <v>470</v>
+      </c>
+      <c r="J121" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>332</v>
+      </c>
+      <c r="B122" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" t="s">
+        <v>56</v>
+      </c>
+      <c r="D122" t="s">
+        <v>472</v>
+      </c>
+      <c r="E122" t="s">
+        <v>473</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s">
+        <v>474</v>
+      </c>
+      <c r="J122" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>332</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="s">
+        <v>248</v>
+      </c>
+      <c r="D123" t="s">
+        <v>475</v>
+      </c>
+      <c r="E123" t="s">
+        <v>476</v>
+      </c>
+      <c r="F123" t="s">
+        <v>469</v>
+      </c>
+      <c r="G123" t="s">
+        <v>216</v>
+      </c>
+      <c r="H123" t="s">
+        <v>217</v>
+      </c>
+      <c r="I123" t="s">
+        <v>477</v>
+      </c>
+      <c r="J123" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>332</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="s">
+        <v>149</v>
+      </c>
+      <c r="D124" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124" t="s">
+        <v>479</v>
+      </c>
+      <c r="F124" t="s">
+        <v>264</v>
+      </c>
+      <c r="G124" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" t="s">
+        <v>72</v>
+      </c>
+      <c r="I124" t="s">
+        <v>480</v>
+      </c>
+      <c r="J124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>423</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>74</v>
+      </c>
+      <c r="D125" t="s">
+        <v>481</v>
+      </c>
+      <c r="E125" t="s">
+        <v>448</v>
+      </c>
+      <c r="F125" t="s">
+        <v>482</v>
+      </c>
+      <c r="G125" t="s">
+        <v>483</v>
+      </c>
+      <c r="H125" t="s">
+        <v>450</v>
+      </c>
+      <c r="I125" t="s">
+        <v>484</v>
+      </c>
+      <c r="J125" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>61</v>
+      </c>
+      <c r="D126" t="s">
+        <v>486</v>
+      </c>
+      <c r="E126" t="s">
         <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" t="s">
+        <v>487</v>
+      </c>
+      <c r="J126" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>332</v>
+      </c>
+      <c r="B127" t="s">
+        <v>199</v>
+      </c>
+      <c r="C127" t="s">
+        <v>93</v>
+      </c>
+      <c r="D127" t="s">
+        <v>489</v>
+      </c>
+      <c r="E127" t="s">
+        <v>490</v>
+      </c>
+      <c r="F127" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s">
+        <v>291</v>
+      </c>
+      <c r="J127" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>332</v>
+      </c>
+      <c r="B128" t="s">
+        <v>199</v>
+      </c>
+      <c r="C128" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" t="s">
+        <v>491</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s">
+        <v>492</v>
+      </c>
+      <c r="J128" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>332</v>
+      </c>
+      <c r="B129" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" t="s">
+        <v>248</v>
+      </c>
+      <c r="D129" t="s">
+        <v>493</v>
+      </c>
+      <c r="F129" t="s">
+        <v>41</v>
+      </c>
+      <c r="G129" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s">
+        <v>494</v>
+      </c>
+      <c r="J129" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>423</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130" t="s">
+        <v>496</v>
+      </c>
+      <c r="E130" t="s">
+        <v>497</v>
+      </c>
+      <c r="F130" t="s">
+        <v>118</v>
+      </c>
+      <c r="G130" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s">
+        <v>497</v>
+      </c>
+      <c r="J130" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>423</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>61</v>
+      </c>
+      <c r="D131" t="s">
+        <v>499</v>
+      </c>
+      <c r="E131" t="s">
+        <v>500</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131" t="s">
+        <v>501</v>
+      </c>
+      <c r="J131" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>423</v>
+      </c>
+      <c r="B132" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" t="s">
+        <v>40</v>
+      </c>
+      <c r="E132" t="s">
+        <v>345</v>
+      </c>
+      <c r="F132" t="s">
+        <v>70</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>72</v>
+      </c>
+      <c r="I132" t="s">
+        <v>256</v>
+      </c>
+      <c r="J132" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>332</v>
+      </c>
+      <c r="B133" t="s">
+        <v>112</v>
+      </c>
+      <c r="C133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D133" t="s">
+        <v>503</v>
+      </c>
+      <c r="E133" t="s">
+        <v>95</v>
+      </c>
+      <c r="F133" t="s">
+        <v>96</v>
+      </c>
+      <c r="G133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" t="s">
+        <v>504</v>
+      </c>
+      <c r="J133" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>423</v>
+      </c>
+      <c r="B134" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134" t="s">
+        <v>506</v>
+      </c>
+      <c r="F134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" t="s">
+        <v>507</v>
+      </c>
+      <c r="J134" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" t="s">
+        <v>199</v>
+      </c>
+      <c r="C135" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" t="s">
+        <v>508</v>
+      </c>
+      <c r="E135" t="s">
+        <v>509</v>
+      </c>
+      <c r="F135" t="s">
+        <v>348</v>
+      </c>
+      <c r="G135" t="s">
+        <v>157</v>
+      </c>
+      <c r="H135" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" t="s">
+        <v>509</v>
+      </c>
+      <c r="J135" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>423</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>61</v>
+      </c>
+      <c r="D136" t="s">
+        <v>511</v>
+      </c>
+      <c r="F136" t="s">
+        <v>512</v>
+      </c>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" t="s">
+        <v>513</v>
+      </c>
+      <c r="J136" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>423</v>
+      </c>
+      <c r="B137" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D137" t="s">
+        <v>515</v>
+      </c>
+      <c r="E137" t="s">
+        <v>516</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s">
+        <v>17</v>
+      </c>
+      <c r="I137" t="s">
+        <v>517</v>
+      </c>
+      <c r="J137" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>423</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" t="s">
+        <v>519</v>
+      </c>
+      <c r="F138" t="s">
+        <v>520</v>
+      </c>
+      <c r="G138" t="s">
+        <v>520</v>
+      </c>
+      <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" t="s">
+        <v>521</v>
+      </c>
+      <c r="J138" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>423</v>
+      </c>
+      <c r="B139" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" t="s">
+        <v>523</v>
+      </c>
+      <c r="F139" t="s">
+        <v>101</v>
+      </c>
+      <c r="G139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" t="s">
+        <v>524</v>
+      </c>
+      <c r="J139" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>332</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" t="s">
+        <v>526</v>
+      </c>
+      <c r="F140" t="s">
+        <v>58</v>
+      </c>
+      <c r="G140" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" t="s">
+        <v>527</v>
+      </c>
+      <c r="J140" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>423</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>529</v>
+      </c>
+      <c r="F141" t="s">
+        <v>54</v>
+      </c>
+      <c r="G141" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" t="s">
+        <v>330</v>
+      </c>
+      <c r="J141" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>423</v>
+      </c>
+      <c r="B142" t="s">
+        <v>74</v>
+      </c>
+      <c r="C142" t="s">
+        <v>181</v>
+      </c>
+      <c r="D142" t="s">
+        <v>530</v>
+      </c>
+      <c r="F142" t="s">
+        <v>394</v>
+      </c>
+      <c r="G142" t="s">
+        <v>359</v>
+      </c>
+      <c r="H142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I142" t="s">
+        <v>531</v>
+      </c>
+      <c r="J142" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
